--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Lrpap1-Vldlr.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H2">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J2">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N2">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P2">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q2">
-        <v>3.794204836171</v>
+        <v>3.947585439777778</v>
       </c>
       <c r="R2">
-        <v>34.147843525539</v>
+        <v>35.528268958</v>
       </c>
       <c r="S2">
-        <v>0.006564418036664427</v>
+        <v>0.006771725530305747</v>
       </c>
       <c r="T2">
-        <v>0.006564418036664427</v>
+        <v>0.006771725530305747</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H3">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J3">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>29.798788</v>
       </c>
       <c r="O3">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P3">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q3">
-        <v>81.36507081069821</v>
+        <v>78.39134049395555</v>
       </c>
       <c r="R3">
-        <v>732.285637296284</v>
+        <v>705.5220644456</v>
       </c>
       <c r="S3">
-        <v>0.1407710868143951</v>
+        <v>0.1344732495030412</v>
       </c>
       <c r="T3">
-        <v>0.1407710868143952</v>
+        <v>0.1344732495030411</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H4">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J4">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N4">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P4">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q4">
-        <v>21.17595983701256</v>
+        <v>18.42196717324444</v>
       </c>
       <c r="R4">
-        <v>190.583638533113</v>
+        <v>165.7977045592</v>
       </c>
       <c r="S4">
-        <v>0.03663688669957244</v>
+        <v>0.03160121733363579</v>
       </c>
       <c r="T4">
-        <v>0.03663688669957244</v>
+        <v>0.03160121733363579</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>8.191447666666667</v>
+        <v>7.892066666666667</v>
       </c>
       <c r="H5">
-        <v>24.574343</v>
+        <v>23.6762</v>
       </c>
       <c r="I5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="J5">
-        <v>0.185794284429433</v>
+        <v>0.1739002798877711</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N5">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P5">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q5">
-        <v>1.053046093823222</v>
+        <v>0.6144815720444444</v>
       </c>
       <c r="R5">
-        <v>9.477414844409001</v>
+        <v>5.5303341484</v>
       </c>
       <c r="S5">
-        <v>0.001821892878800979</v>
+        <v>0.001054087520788408</v>
       </c>
       <c r="T5">
-        <v>0.001821892878800979</v>
+        <v>0.001054087520788408</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J6">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N6">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P6">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q6">
-        <v>8.021403707081999</v>
+        <v>8.662256814726666</v>
       </c>
       <c r="R6">
-        <v>72.19263336373801</v>
+        <v>77.96031133254</v>
       </c>
       <c r="S6">
-        <v>0.01387796638498693</v>
+        <v>0.01485931755428999</v>
       </c>
       <c r="T6">
-        <v>0.01387796638498693</v>
+        <v>0.01485931755428999</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J7">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>29.798788</v>
       </c>
       <c r="O7">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P7">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q7">
         <v>172.0155101817253</v>
@@ -883,10 +883,10 @@
         <v>1548.139591635528</v>
       </c>
       <c r="S7">
-        <v>0.2976069470098742</v>
+        <v>0.2950770387813899</v>
       </c>
       <c r="T7">
-        <v>0.2976069470098742</v>
+        <v>0.2950770387813899</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J8">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N8">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P8">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q8">
-        <v>44.76851674382733</v>
+        <v>40.42364962621066</v>
       </c>
       <c r="R8">
-        <v>402.916650694446</v>
+        <v>363.812846635896</v>
       </c>
       <c r="S8">
-        <v>0.07745476891133476</v>
+        <v>0.06934311223352639</v>
       </c>
       <c r="T8">
-        <v>0.07745476891133476</v>
+        <v>0.06934311223352639</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,40 +977,40 @@
         <v>51.95310600000001</v>
       </c>
       <c r="I9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="J9">
-        <v>0.3927913821808576</v>
+        <v>0.3815924715300191</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N9">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P9">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q9">
-        <v>2.226265635475333</v>
+        <v>1.348367822854667</v>
       </c>
       <c r="R9">
-        <v>20.036390719278</v>
+        <v>12.135310405692</v>
       </c>
       <c r="S9">
-        <v>0.003851699874661651</v>
+        <v>0.002313002960812856</v>
       </c>
       <c r="T9">
-        <v>0.003851699874661651</v>
+        <v>0.002313002960812856</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H10">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J10">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N10">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P10">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q10">
-        <v>2.884925391861</v>
+        <v>3.859653866957777</v>
       </c>
       <c r="R10">
-        <v>25.964328526749</v>
+        <v>34.73688480262</v>
       </c>
       <c r="S10">
-        <v>0.004991258272675408</v>
+        <v>0.006620886875723349</v>
       </c>
       <c r="T10">
-        <v>0.004991258272675407</v>
+        <v>0.00662088687572335</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H11">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J11">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>29.798788</v>
       </c>
       <c r="O11">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P11">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q11">
-        <v>61.86596900478266</v>
+        <v>76.64519111473155</v>
       </c>
       <c r="R11">
-        <v>556.793721043044</v>
+        <v>689.8067200325839</v>
       </c>
       <c r="S11">
-        <v>0.1070353605896924</v>
+        <v>0.1314778882850495</v>
       </c>
       <c r="T11">
-        <v>0.1070353605896924</v>
+        <v>0.1314778882850495</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H12">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J12">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N12">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P12">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q12">
-        <v>16.10115079935367</v>
+        <v>18.01162202107644</v>
       </c>
       <c r="R12">
-        <v>144.910357194183</v>
+        <v>162.104598189688</v>
       </c>
       <c r="S12">
-        <v>0.02785687364865495</v>
+        <v>0.03089730736498171</v>
       </c>
       <c r="T12">
-        <v>0.02785687364865494</v>
+        <v>0.03089730736498171</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>6.228371</v>
+        <v>7.716272666666666</v>
       </c>
       <c r="H13">
-        <v>18.685113</v>
+        <v>23.148818</v>
       </c>
       <c r="I13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="J13">
-        <v>0.1412687695991749</v>
+        <v>0.1700266904854272</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N13">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P13">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q13">
-        <v>0.8006840816576666</v>
+        <v>0.6007941340084444</v>
       </c>
       <c r="R13">
-        <v>7.206156734919</v>
+        <v>5.407147206075999</v>
       </c>
       <c r="S13">
-        <v>0.001385277088152127</v>
+        <v>0.00103060795967267</v>
       </c>
       <c r="T13">
-        <v>0.001385277088152127</v>
+        <v>0.00103060795967267</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H14">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J14">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.463191</v>
+        <v>0.5001966666666666</v>
       </c>
       <c r="N14">
-        <v>1.389573</v>
+        <v>1.50059</v>
       </c>
       <c r="O14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="P14">
-        <v>0.0353316468093919</v>
+        <v>0.03894027965151046</v>
       </c>
       <c r="Q14">
-        <v>5.721002969656</v>
+        <v>6.230786145624444</v>
       </c>
       <c r="R14">
-        <v>51.489026726904</v>
+        <v>56.07707531062</v>
       </c>
       <c r="S14">
-        <v>0.009898004115065138</v>
+        <v>0.01068834969119138</v>
       </c>
       <c r="T14">
-        <v>0.009898004115065136</v>
+        <v>0.01068834969119138</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H15">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J15">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>29.798788</v>
       </c>
       <c r="O15">
-        <v>0.7576717833204485</v>
+        <v>0.7732779360092192</v>
       </c>
       <c r="P15">
-        <v>0.7576717833204486</v>
+        <v>0.7732779360092191</v>
       </c>
       <c r="Q15">
-        <v>122.6844179040249</v>
+        <v>123.7312493264649</v>
       </c>
       <c r="R15">
-        <v>1104.159761136224</v>
+        <v>1113.581243938184</v>
       </c>
       <c r="S15">
-        <v>0.2122583889064868</v>
+        <v>0.2122497594397386</v>
       </c>
       <c r="T15">
-        <v>0.2122583889064868</v>
+        <v>0.2122497594397386</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H16">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J16">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.585130333333333</v>
+        <v>2.334238666666666</v>
       </c>
       <c r="N16">
-        <v>7.755390999999999</v>
+        <v>7.002715999999999</v>
       </c>
       <c r="O16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411497</v>
       </c>
       <c r="P16">
-        <v>0.1971906014874617</v>
+        <v>0.1817203362411496</v>
       </c>
       <c r="Q16">
-        <v>31.92967547717423</v>
+        <v>29.07684699654311</v>
       </c>
       <c r="R16">
-        <v>287.367079294568</v>
+        <v>261.691622968888</v>
       </c>
       <c r="S16">
-        <v>0.05524207222789961</v>
+        <v>0.04987869930900574</v>
       </c>
       <c r="T16">
-        <v>0.05524207222789959</v>
+        <v>0.04987869930900574</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,46 +1467,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>12.35128266666667</v>
+        <v>12.45667266666667</v>
       </c>
       <c r="H17">
-        <v>37.053848</v>
+        <v>37.370018</v>
       </c>
       <c r="I17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967825</v>
       </c>
       <c r="J17">
-        <v>0.2801455637905346</v>
+        <v>0.2744805580967826</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.1285543333333333</v>
+        <v>0.07786066666666666</v>
       </c>
       <c r="N17">
-        <v>0.385663</v>
+        <v>0.233582</v>
       </c>
       <c r="O17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120818</v>
       </c>
       <c r="P17">
-        <v>0.009805968382697785</v>
+        <v>0.006061448098120817</v>
       </c>
       <c r="Q17">
-        <v>1.587810909024889</v>
+        <v>0.9698848382751112</v>
       </c>
       <c r="R17">
-        <v>14.290298181224</v>
+        <v>8.728963544476001</v>
       </c>
       <c r="S17">
-        <v>0.002747098541083028</v>
+        <v>0.001663749656846883</v>
       </c>
       <c r="T17">
-        <v>0.002747098541083027</v>
+        <v>0.001663749656846883</v>
       </c>
     </row>
   </sheetData>
